--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lived\Downloads\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3071A7-0F0C-4674-B117-83B8391ABACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245425C8-0698-4F9A-83AA-7A785BE2D32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{95CDA20B-28E6-492E-A417-7A279BE0FBFA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{95CDA20B-28E6-492E-A417-7A279BE0FBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="s2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>ACUST2_NEW_201512</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E79A64-BFBE-4A41-8A55-8EA5777D73D1}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -588,4 +589,116 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7B54F5-FF6E-483C-97B1-9D7DA8FB6264}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>